--- a/classfiers/bloated/svm/bloated-svm-linear-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-linear-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2096774193548387</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.8387096774193548</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9912982944657152</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.996853146853147</v>
+        <v>0.9947209653092006</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9363636363636364</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9216719353705655</v>
+        <v>0.8706293706293706</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7216973886328726</v>
+        <v>0.3644444444444445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.55</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6626516516516516</v>
+        <v>0.3980449657869013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9837050164447426</v>
+        <v>0.9586024533535846</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/svm/bloated-svm-linear-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-linear-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8387096774193548</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9912982944657152</v>
+        <v>0.9950248756218906</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9947209653092006</v>
+        <v>0.9945725915875169</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9363636363636364</v>
+        <v>0.9149999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8706293706293706</v>
+        <v>0.8608333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3644444444444445</v>
+        <v>0.3454728775962895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.55</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3980449657869013</v>
+        <v>0.3834101382488478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9586024533535846</v>
+        <v>0.9530861601085482</v>
       </c>
     </row>
   </sheetData>
